--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\5g-cop\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F9EDE9-1A0F-4F63-98DE-A262E6A1BEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335EF469-4402-4FF6-B3FA-2664BBB6BBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{398FC3E8-3646-4E76-9457-E32DE5631863}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{398FC3E8-3646-4E76-9457-E32DE5631863}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Delay AMF 1 strona</t>
-  </si>
-  <si>
-    <t>Delay bidirectional AMF</t>
   </si>
   <si>
     <t>przedzial ufnosci</t>
@@ -54,6 +51,15 @@
   </si>
   <si>
     <t>average</t>
+  </si>
+  <si>
+    <t>Delay AUSF</t>
+  </si>
+  <si>
+    <t>Delay pcf</t>
+  </si>
+  <si>
+    <t>Delay smf</t>
   </si>
 </sst>
 </file>
@@ -162,26 +168,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -190,8 +176,126 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Registration procedure duration</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$B$13:$F$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>12.107438564687733</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>39.99248758096499</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>41.499524110659756</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>82.60493702122973</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>143.40425774226463</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$B$13:$F$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>12.107438564687733</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>39.99248758096499</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>41.499524110659756</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>82.60493702122973</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>143.40425774226463</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1178.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1840.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2479.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3237.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0652-41FE-B556-FA460C7E6193}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>Registration procedure duration</c:v>
           </c:tx>
@@ -214,48 +318,48 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$B$8:$F$8</c:f>
+                <c:f>Sheet1!$B$13:$F$13</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>15.348908318037774</c:v>
+                    <c:v>12.107438564687733</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>47.463189727801641</c:v>
+                    <c:v>39.99248758096499</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>46.206623777021711</c:v>
+                    <c:v>41.499524110659756</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>110.86343580867859</c:v>
+                    <c:v>82.60493702122973</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>137.8147668778833</c:v>
+                    <c:v>143.40425774226463</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$B$8:$F$8</c:f>
+                <c:f>Sheet1!$B$13:$F$13</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>15.348908318037774</c:v>
+                    <c:v>12.107438564687733</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>47.463189727801641</c:v>
+                    <c:v>39.99248758096499</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>46.206623777021711</c:v>
+                    <c:v>41.499524110659756</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>110.86343580867859</c:v>
+                    <c:v>82.60493702122973</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>137.8147668778833</c:v>
+                    <c:v>143.40425774226463</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -300,24 +404,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$F$9</c:f>
+              <c:f>Sheet1!$B$14:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>502.4</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1196.8</c:v>
+                  <c:v>1178.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1866.8</c:v>
+                  <c:v>1840.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2508.4</c:v>
+                  <c:v>2479.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3356.2</c:v>
+                  <c:v>3237.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -325,7 +429,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EC3D-4FC1-A4D5-3A4BC46DFCF8}"/>
+              <c16:uniqueId val="{00000001-0652-41FE-B556-FA460C7E6193}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -387,26 +491,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -507,26 +591,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -563,40 +627,12 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -615,576 +651,812 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Effect</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> of AUSF bidirectional delay on registration procedure duration</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Registration procedure duration</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$J$13:$N$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>12.107438564687733</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.4862668002667014</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.8280510372316954</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.9091333040357208</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.4007783283555257</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$J$13:$N$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>12.107438564687733</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.4862668002667014</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.8280510372316954</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.9091333040357208</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.4007783283555257</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$14:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>698.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>896.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1096.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1291.0999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1752-4550-9B79-1EFCB81D2387}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1780793839"/>
+        <c:axId val="1791143407"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1780793839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>AMF</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> Delay [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1791143407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1791143407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Registration procedure duration [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1780793839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Effect</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> of PCF bidirectional delay on registration procedure duration</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
         <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Registration procedure duration</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$R$13:$V$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>12.107438564687733</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.5808922831435432</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.6257071288019738</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.8573179644270184</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.8880873352692527</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$R$13:$V$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>12.107438564687733</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.5808922831435432</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.6257071288019738</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.8573179644270184</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.8880873352692527</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$14:$V$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>794.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1093.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1394.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1694.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2346-41F2-9365-5A89828658BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1780793839"/>
+        <c:axId val="1791143407"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1780793839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>AMF</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> Delay [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1791143407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1791143407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Registration procedure duration [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1780793839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>186788</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>72983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>348713</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>44408</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1204,6 +1476,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>439690</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>177992</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>471729</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>149417</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DCCA0B2-1171-462D-B360-03ABE098E43D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>529167</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>52916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>201372</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>24341</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C19E49B-AE8E-49BC-964D-3472991D3681}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1529,19 +1877,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC41243-BBDC-4D6F-8998-A33477091CEE}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1561,10 +1910,61 @@
         <v>200</v>
       </c>
       <c r="I1" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>50</v>
+      </c>
+      <c r="L1">
+        <v>100</v>
+      </c>
+      <c r="M1">
+        <v>150</v>
+      </c>
+      <c r="N1">
+        <v>200</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>50</v>
+      </c>
+      <c r="T1">
+        <v>100</v>
+      </c>
+      <c r="U1">
+        <v>150</v>
+      </c>
+      <c r="V1">
+        <v>200</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1">
+        <v>0</v>
+      </c>
+      <c r="AA1">
+        <v>50</v>
+      </c>
+      <c r="AB1">
+        <v>100</v>
+      </c>
+      <c r="AC1">
+        <v>150</v>
+      </c>
+      <c r="AD1">
+        <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1583,8 +1983,44 @@
       <c r="F2">
         <v>3232</v>
       </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>530</v>
+      </c>
+      <c r="K2">
+        <v>717</v>
+      </c>
+      <c r="L2">
+        <v>914</v>
+      </c>
+      <c r="M2">
+        <v>1108</v>
+      </c>
+      <c r="N2">
+        <v>1308</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>530</v>
+      </c>
+      <c r="S2">
+        <v>805</v>
+      </c>
+      <c r="T2">
+        <v>1095</v>
+      </c>
+      <c r="U2">
+        <v>1398</v>
+      </c>
+      <c r="V2">
+        <v>1696</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1603,8 +2039,44 @@
       <c r="F3">
         <v>3219</v>
       </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>496</v>
+      </c>
+      <c r="K3">
+        <v>707</v>
+      </c>
+      <c r="L3">
+        <v>896</v>
+      </c>
+      <c r="M3">
+        <v>1099</v>
+      </c>
+      <c r="N3">
+        <v>1296</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>496</v>
+      </c>
+      <c r="S3">
+        <v>792</v>
+      </c>
+      <c r="T3">
+        <v>1095</v>
+      </c>
+      <c r="U3">
+        <v>1397</v>
+      </c>
+      <c r="V3">
+        <v>1692</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1623,8 +2095,44 @@
       <c r="F4">
         <v>3654</v>
       </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>515</v>
+      </c>
+      <c r="K4">
+        <v>694</v>
+      </c>
+      <c r="L4">
+        <v>893</v>
+      </c>
+      <c r="M4">
+        <v>1093</v>
+      </c>
+      <c r="N4">
+        <v>1296</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>515</v>
+      </c>
+      <c r="S4">
+        <v>796</v>
+      </c>
+      <c r="T4">
+        <v>1095</v>
+      </c>
+      <c r="U4">
+        <v>1395</v>
+      </c>
+      <c r="V4">
+        <v>1694</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1643,8 +2151,44 @@
       <c r="F5">
         <v>3336</v>
       </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>486</v>
+      </c>
+      <c r="K5">
+        <v>697</v>
+      </c>
+      <c r="L5">
+        <v>892</v>
+      </c>
+      <c r="M5">
+        <v>1096</v>
+      </c>
+      <c r="N5">
+        <v>1276</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>486</v>
+      </c>
+      <c r="S5">
+        <v>793</v>
+      </c>
+      <c r="T5">
+        <v>1094</v>
+      </c>
+      <c r="U5">
+        <v>1391</v>
+      </c>
+      <c r="V5">
+        <v>1696</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1663,85 +2207,539 @@
       <c r="F6">
         <v>3340</v>
       </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>485</v>
+      </c>
+      <c r="K6">
+        <v>697</v>
+      </c>
+      <c r="L6">
+        <v>892</v>
+      </c>
+      <c r="M6">
+        <v>1095</v>
+      </c>
+      <c r="N6">
+        <v>1284</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>485</v>
+      </c>
+      <c r="S6">
+        <v>789</v>
+      </c>
+      <c r="T6">
+        <v>1092</v>
+      </c>
+      <c r="U6">
+        <v>1394</v>
+      </c>
+      <c r="V6">
+        <v>1695</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>510</v>
+      </c>
+      <c r="C7">
+        <v>1157</v>
+      </c>
+      <c r="D7">
+        <v>1806</v>
+      </c>
+      <c r="E7">
+        <v>2454</v>
+      </c>
+      <c r="F7">
+        <v>3109</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>510</v>
+      </c>
+      <c r="K7">
+        <v>696</v>
+      </c>
+      <c r="L7">
+        <v>898</v>
+      </c>
+      <c r="M7">
+        <v>1095</v>
+      </c>
+      <c r="N7">
+        <v>1282</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <v>510</v>
+      </c>
+      <c r="S7">
+        <v>797</v>
+      </c>
+      <c r="T7">
+        <v>1094</v>
+      </c>
+      <c r="U7">
+        <v>1397</v>
+      </c>
+      <c r="V7">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>491</v>
+      </c>
+      <c r="C8">
+        <v>1142</v>
+      </c>
+      <c r="D8">
+        <v>1847</v>
+      </c>
+      <c r="E8">
+        <v>2461</v>
+      </c>
+      <c r="F8">
+        <v>3105</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>491</v>
+      </c>
+      <c r="K8">
+        <v>693</v>
+      </c>
+      <c r="L8">
+        <v>900</v>
+      </c>
+      <c r="M8">
+        <v>1095</v>
+      </c>
+      <c r="N8">
+        <v>1290</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <v>491</v>
+      </c>
+      <c r="S8">
+        <v>797</v>
+      </c>
+      <c r="T8">
+        <v>1095</v>
+      </c>
+      <c r="U8">
+        <v>1396</v>
+      </c>
+      <c r="V8">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>490</v>
+      </c>
+      <c r="C9">
+        <v>1146</v>
+      </c>
+      <c r="D9">
+        <v>1799</v>
+      </c>
+      <c r="E9">
+        <v>2446</v>
+      </c>
+      <c r="F9">
+        <v>3109</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>490</v>
+      </c>
+      <c r="K9">
+        <v>695</v>
+      </c>
+      <c r="L9">
+        <v>899</v>
+      </c>
+      <c r="M9">
+        <v>1093</v>
+      </c>
+      <c r="N9">
+        <v>1294</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <v>490</v>
+      </c>
+      <c r="S9">
+        <v>793</v>
+      </c>
+      <c r="T9">
+        <v>1089</v>
+      </c>
+      <c r="U9">
+        <v>1395</v>
+      </c>
+      <c r="V9">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>493</v>
+      </c>
+      <c r="C10">
+        <v>1148</v>
+      </c>
+      <c r="D10">
+        <v>1814</v>
+      </c>
+      <c r="E10">
+        <v>2441</v>
+      </c>
+      <c r="F10">
+        <v>3160</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>493</v>
+      </c>
+      <c r="K10">
+        <v>693</v>
+      </c>
+      <c r="L10">
+        <v>894</v>
+      </c>
+      <c r="M10">
+        <v>1096</v>
+      </c>
+      <c r="N10">
+        <v>1294</v>
+      </c>
+      <c r="Q10">
+        <v>9</v>
+      </c>
+      <c r="R10">
+        <v>493</v>
+      </c>
+      <c r="S10">
+        <v>793</v>
+      </c>
+      <c r="T10">
+        <v>1093</v>
+      </c>
+      <c r="U10">
+        <v>1394</v>
+      </c>
+      <c r="V10">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>504</v>
+      </c>
+      <c r="C11">
+        <v>1205</v>
+      </c>
+      <c r="D11">
+        <v>1803</v>
+      </c>
+      <c r="E11">
+        <v>2447</v>
+      </c>
+      <c r="F11">
+        <v>3107</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>504</v>
+      </c>
+      <c r="K11">
+        <v>693</v>
+      </c>
+      <c r="L11">
+        <v>889</v>
+      </c>
+      <c r="M11">
+        <v>1091</v>
+      </c>
+      <c r="N11">
+        <v>1291</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <v>504</v>
+      </c>
+      <c r="S11">
+        <v>794</v>
+      </c>
+      <c r="T11">
+        <v>1092</v>
+      </c>
+      <c r="U11">
+        <v>1392</v>
+      </c>
+      <c r="V11">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <f>_xlfn.STDEV.P(B2:B11)</f>
+        <v>13.813037319865606</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:F12" si="0">_xlfn.STDEV.P(C2:C11)</f>
+        <v>45.626308200423139</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>47.345643939015126</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>94.24165745571328</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>163.60589842667653</v>
+      </c>
+      <c r="I12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <f>_xlfn.STDEV.P(J2:J11)</f>
+        <v>13.813037319865606</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12" si="1">_xlfn.STDEV.P(K2:K11)</f>
+        <v>7.3999999999999995</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12" si="2">_xlfn.STDEV.P(L2:L11)</f>
+        <v>6.6490600839517162</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12" si="3">_xlfn.STDEV.P(M2:M11)</f>
+        <v>4.4598206241955527</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ref="N12" si="4">_xlfn.STDEV.P(N2:N11)</f>
+        <v>8.4433405711246774</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <f>_xlfn.STDEV.P(R2:R11)</f>
+        <v>13.813037319865606</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ref="S12" si="5">_xlfn.STDEV.P(S2:S11)</f>
+        <v>4.0853396431630982</v>
+      </c>
+      <c r="T12">
+        <f t="shared" ref="T12" si="6">_xlfn.STDEV.P(T2:T11)</f>
+        <v>1.8547236990991409</v>
+      </c>
+      <c r="U12">
+        <f t="shared" ref="U12" si="7">_xlfn.STDEV.P(U2:U11)</f>
+        <v>2.118962010041709</v>
+      </c>
+      <c r="V12">
+        <f t="shared" ref="V12" si="8">_xlfn.STDEV.P(V2:V11)</f>
+        <v>2.1540659228538019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <f>_xlfn.CONFIDENCE.NORM(B17,B12,5)</f>
+        <v>12.107438564687733</v>
+      </c>
+      <c r="C13">
+        <f>_xlfn.CONFIDENCE.NORM($B$17,C12,5)</f>
+        <v>39.99248758096499</v>
+      </c>
+      <c r="D13">
+        <f>_xlfn.CONFIDENCE.NORM($B$17,D12,5)</f>
+        <v>41.499524110659756</v>
+      </c>
+      <c r="E13">
+        <f>_xlfn.CONFIDENCE.NORM($B$17,E12,5)</f>
+        <v>82.60493702122973</v>
+      </c>
+      <c r="F13">
+        <f>_xlfn.CONFIDENCE.NORM(B17,F12,5)</f>
+        <v>143.40425774226463</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <f>_xlfn.CONFIDENCE.NORM(B17,J12,5)</f>
+        <v>12.107438564687733</v>
+      </c>
+      <c r="K13">
+        <f>_xlfn.CONFIDENCE.NORM($B$17,K12,5)</f>
+        <v>6.4862668002667014</v>
+      </c>
+      <c r="L13">
+        <f>_xlfn.CONFIDENCE.NORM($B$17,L12,5)</f>
+        <v>5.8280510372316954</v>
+      </c>
+      <c r="M13">
+        <f>_xlfn.CONFIDENCE.NORM($B$17,M12,5)</f>
+        <v>3.9091333040357208</v>
+      </c>
+      <c r="N13">
+        <f>_xlfn.CONFIDENCE.NORM(B17,N12,5)</f>
+        <v>7.4007783283555257</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <f>_xlfn.CONFIDENCE.NORM($B$17,R12,5)</f>
+        <v>12.107438564687733</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ref="S13:V13" si="9">_xlfn.CONFIDENCE.NORM($B$17,S12,5)</f>
+        <v>3.5808922831435432</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="9"/>
+        <v>1.6257071288019738</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="9"/>
+        <v>1.8573179644270184</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="9"/>
+        <v>1.8880873352692527</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <f>_xlfn.STDEV.P(B2:B6)</f>
-        <v>17.511139311878026</v>
-      </c>
-      <c r="C7">
-        <f>_xlfn.STDEV.P(C2:C6)</f>
-        <v>54.149422896278402</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ref="D7:E7" si="0">_xlfn.STDEV.P(D2:D6)</f>
-        <v>52.715842021160967</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>126.4809867134187</v>
-      </c>
-      <c r="F7">
-        <f>_xlfn.STDEV.P(F2:F6)</f>
-        <v>157.22900495773672</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <f>_xlfn.CONFIDENCE.NORM(B17,B7,5)</f>
-        <v>15.348908318037774</v>
-      </c>
-      <c r="C8">
-        <f>_xlfn.CONFIDENCE.NORM($B$17,C7,5)</f>
-        <v>47.463189727801641</v>
-      </c>
-      <c r="D8">
-        <f>_xlfn.CONFIDENCE.NORM($B$17,D7,5)</f>
-        <v>46.206623777021711</v>
-      </c>
-      <c r="E8">
-        <f>_xlfn.CONFIDENCE.NORM($B$17,E7,5)</f>
-        <v>110.86343580867859</v>
-      </c>
-      <c r="F8">
-        <f>_xlfn.CONFIDENCE.NORM(B17,F7,5)</f>
-        <v>137.8147668778833</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <f>AVERAGE(B2:B6)</f>
-        <v>502.4</v>
-      </c>
-      <c r="C9">
-        <f>AVERAGE(C2:C6)</f>
-        <v>1196.8</v>
-      </c>
-      <c r="D9">
-        <f>AVERAGE(D2:D6)</f>
-        <v>1866.8</v>
-      </c>
-      <c r="E9">
-        <f>AVERAGE(E2:E6)</f>
-        <v>2508.4</v>
-      </c>
-      <c r="F9">
-        <f>AVERAGE(F2:F6)</f>
-        <v>3356.2</v>
+      <c r="B14">
+        <f>AVERAGE(B2:B11)</f>
+        <v>500</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:F14" si="10">AVERAGE(C2:C11)</f>
+        <v>1178.2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="10"/>
+        <v>1840.3</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="10"/>
+        <v>2479.1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="10"/>
+        <v>3237.1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <f>AVERAGE(J2:J11)</f>
+        <v>500</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14:N14" si="11">AVERAGE(K2:K11)</f>
+        <v>698.2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="11"/>
+        <v>896.7</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="11"/>
+        <v>1096.0999999999999</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="11"/>
+        <v>1291.0999999999999</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <f>AVERAGE(R2:R11)</f>
+        <v>500</v>
+      </c>
+      <c r="S14">
+        <f t="shared" ref="S14:V14" si="12">AVERAGE(S2:S11)</f>
+        <v>794.9</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="12"/>
+        <v>1093.4000000000001</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="12"/>
+        <v>1394.9</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="12"/>
+        <v>1694.6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17">
         <v>0.05</v>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\5g-cop\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335EF469-4402-4FF6-B3FA-2664BBB6BBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A25BDE-2239-4992-AEDF-F99B58879C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{398FC3E8-3646-4E76-9457-E32DE5631863}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{398FC3E8-3646-4E76-9457-E32DE5631863}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="delay" sheetId="1" r:id="rId1"/>
+    <sheet name="jitter" sheetId="2" r:id="rId2"/>
+    <sheet name="loss" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
   <si>
     <t>Delay AMF 1 strona</t>
   </si>
@@ -60,6 +62,24 @@
   </si>
   <si>
     <t>Delay smf</t>
+  </si>
+  <si>
+    <t>Delay udm</t>
+  </si>
+  <si>
+    <t>Delay upf</t>
+  </si>
+  <si>
+    <t>Delay udr</t>
+  </si>
+  <si>
+    <t>Jitter AMF</t>
+  </si>
+  <si>
+    <t>Loss  AMF</t>
+  </si>
+  <si>
+    <t>irrelevant</t>
   </si>
 </sst>
 </file>
@@ -191,7 +211,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$B$13:$F$13</c:f>
+                <c:f>delay!$B$13:$F$13</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -215,7 +235,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$B$13:$F$13</c:f>
+                <c:f>delay!$B$13:$F$13</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -240,7 +260,7 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:f>delay!$B$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -264,7 +284,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$F$14</c:f>
+              <c:f>delay!$B$14:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -318,7 +338,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$B$13:$F$13</c:f>
+                <c:f>delay!$B$13:$F$13</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -342,7 +362,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$B$13:$F$13</c:f>
+                <c:f>delay!$B$13:$F$13</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -380,7 +400,7 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:f>delay!$B$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -404,7 +424,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$F$14</c:f>
+              <c:f>delay!$B$14:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -727,7 +747,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$J$13:$N$13</c:f>
+                <c:f>delay!$J$13:$N$13</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -751,7 +771,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$J$13:$N$13</c:f>
+                <c:f>delay!$J$13:$N$13</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -776,7 +796,7 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:f>delay!$B$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -800,7 +820,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$14:$N$14</c:f>
+              <c:f>delay!$J$14:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1123,7 +1143,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$R$13:$V$13</c:f>
+                <c:f>delay!$R$13:$V$13</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -1147,7 +1167,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$R$13:$V$13</c:f>
+                <c:f>delay!$R$13:$V$13</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -1172,7 +1192,7 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:f>delay!$B$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1196,7 +1216,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$14:$V$14</c:f>
+              <c:f>delay!$R$14:$V$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1443,6 +1463,2336 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Effect</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> of SMF bidirectional delay on registration procedure duration</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Registration procedure duration</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>delay!$Z$13:$AD$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>12.107438564687733</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.1137054496723851</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>25.231215560948925</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.4397228329820271</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.7073898716541227</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>delay!$Z$13:$AD$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>12.107438564687733</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.1137054496723851</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>25.231215560948925</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.4397228329820271</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.7073898716541227</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>delay!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>delay!$Z$14:$AD$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>643.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>804.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1092.9000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4A3D-4B54-9116-C6F3D2A2D99E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1780793839"/>
+        <c:axId val="1791143407"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1780793839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>SMF</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> Delay [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1791143407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1791143407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Registration procedure duration [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1780793839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Effect</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> of UDM bidirectional delay on registration procedure duration</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Registration procedure duration</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>delay!$AH$13:$AL$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>12.107438564687733</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>28.683723037615355</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.0443703661405159</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.9459488240559244</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>11.779693354290387</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>delay!$AH$13:$AL$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>12.107438564687733</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>28.683723037615355</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.0443703661405159</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.9459488240559244</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>11.779693354290387</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>delay!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>delay!$AH$14:$AL$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1058.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2151.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2705.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-39BD-4A20-8C11-F884CDDB33EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1780793839"/>
+        <c:axId val="1791143407"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1780793839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>SMF</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> Delay [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1791143407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1791143407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Registration procedure duration [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1780793839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Effect</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> of UDR bidirectional delay on registration procedure duration</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Registration procedure duration</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>delay!$AP$13:$AT$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>12.107438564687733</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>15.837915837435325</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16.511227985435259</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.2549892893903878</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.8406973352108207</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>delay!$AP$13:$AT$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>12.107438564687733</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>15.837915837435325</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16.511227985435259</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.2549892893903878</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.8406973352108207</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>delay!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>delay!$AP$14:$AT$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1153.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1809.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2446.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3099.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1925-4836-856A-7FF8DA475045}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>UDM</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>delay!$AH$14:$AL$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1058.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2151.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2705.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1925-4836-856A-7FF8DA475045}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1780793839"/>
+        <c:axId val="1791143407"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1780793839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>SMF</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> Delay [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1791143407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1791143407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Registration procedure duration [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1780793839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Effect</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> of UPF bidirectional delay on registration procedure duration</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Registration procedure duration</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>delay!$AX$13:$BB$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>12.107438564687733</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.8469475988171351</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.6075624848943884</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.9853282003844006</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.9676565182994996</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>delay!$AX$13:$BB$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>12.107438564687733</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.8469475988171351</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.6075624848943884</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.9853282003844006</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.9676565182994996</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>delay!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>delay!$AX$14:$BB$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>542.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>591.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>694.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-741E-4EB1-BDA6-26099605876F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1780793839"/>
+        <c:axId val="1791143407"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1780793839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>SMF</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> Delay [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1791143407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1791143407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Registration procedure duration [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1780793839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Effect</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> of  bidirectional delay on registration procedure duration per NF</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>UPF</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>delay!$AX$13:$BB$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>12.107438564687733</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.8469475988171351</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.6075624848943884</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.9853282003844006</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.9676565182994996</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>delay!$AX$13:$BB$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>12.107438564687733</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.8469475988171351</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.6075624848943884</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.9853282003844006</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.9676565182994996</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>delay!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>delay!$AX$14:$BB$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>542.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>591.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>694.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B64D-4CD2-84A6-D662A4307F19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>"AMF"</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>delay!$B$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1178.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1840.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2479.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3237.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B64D-4CD2-84A6-D662A4307F19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>"PCF"</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>delay!$R$14:$V$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>794.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1093.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1394.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1694.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B64D-4CD2-84A6-D662A4307F19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>"AUSF"</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>delay!$J$14:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>698.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>896.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1096.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1291.0999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-B64D-4CD2-84A6-D662A4307F19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>"SMF"</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>delay!$Z$14:$AD$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>643.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>804.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1092.9000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-B64D-4CD2-84A6-D662A4307F19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>UDM</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>delay!$AH$14:$AL$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1058.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2151.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2705.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-B64D-4CD2-84A6-D662A4307F19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>UDR</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>delay!$AP$14:$AT$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1153.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1809.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2446.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3099.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-B64D-4CD2-84A6-D662A4307F19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1780793839"/>
+        <c:axId val="1791143407"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1780793839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>SMF</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> Delay [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1791143407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1791143407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Registration procedure duration [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1780793839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1552,6 +3902,196 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>564092</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA6E85D-4198-468C-BFA7-AF15D817D407}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>116416</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>500591</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>119592</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC97AD7E-26AC-4CDA-BBD0-4502D3CA4A7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>553508</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>183092</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2A33BE-BE99-4C32-9849-8B1C787790A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>328084</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>98426</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>56091</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824EFD6B-1B49-4E9E-940C-20A78DFA4A29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>548819</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>105009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>317925</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76434</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B72678AF-FE8E-43B0-A048-378532123073}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1877,10 +4417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC41243-BBDC-4D6F-8998-A33477091CEE}">
-  <dimension ref="A1:AD17"/>
+  <dimension ref="A1:BB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,9 +4428,10 @@
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1963,8 +4504,62 @@
       <c r="AD1">
         <v>200</v>
       </c>
+      <c r="AG1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH1">
+        <v>0</v>
+      </c>
+      <c r="AI1">
+        <v>50</v>
+      </c>
+      <c r="AJ1">
+        <v>100</v>
+      </c>
+      <c r="AK1">
+        <v>150</v>
+      </c>
+      <c r="AL1">
+        <v>200</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP1">
+        <v>0</v>
+      </c>
+      <c r="AQ1">
+        <v>50</v>
+      </c>
+      <c r="AR1">
+        <v>100</v>
+      </c>
+      <c r="AS1">
+        <v>150</v>
+      </c>
+      <c r="AT1">
+        <v>200</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX1">
+        <v>0</v>
+      </c>
+      <c r="AY1">
+        <v>50</v>
+      </c>
+      <c r="AZ1">
+        <v>100</v>
+      </c>
+      <c r="BA1">
+        <v>150</v>
+      </c>
+      <c r="BB1">
+        <v>200</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2019,8 +4614,68 @@
       <c r="V2">
         <v>1696</v>
       </c>
+      <c r="Z2">
+        <v>530</v>
+      </c>
+      <c r="AA2">
+        <v>664</v>
+      </c>
+      <c r="AB2">
+        <v>806</v>
+      </c>
+      <c r="AC2">
+        <v>939</v>
+      </c>
+      <c r="AD2">
+        <v>1097</v>
+      </c>
+      <c r="AH2">
+        <v>530</v>
+      </c>
+      <c r="AI2">
+        <v>1059</v>
+      </c>
+      <c r="AJ2">
+        <v>1605</v>
+      </c>
+      <c r="AK2">
+        <v>2146</v>
+      </c>
+      <c r="AL2">
+        <v>2703</v>
+      </c>
+      <c r="AP2">
+        <v>530</v>
+      </c>
+      <c r="AQ2">
+        <v>1147</v>
+      </c>
+      <c r="AR2">
+        <v>1795</v>
+      </c>
+      <c r="AS2">
+        <v>2447</v>
+      </c>
+      <c r="AT2">
+        <v>3096</v>
+      </c>
+      <c r="AX2">
+        <v>530</v>
+      </c>
+      <c r="AY2">
+        <v>542</v>
+      </c>
+      <c r="AZ2">
+        <v>595</v>
+      </c>
+      <c r="BA2">
+        <v>645</v>
+      </c>
+      <c r="BB2">
+        <v>706</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2075,8 +4730,68 @@
       <c r="V3">
         <v>1692</v>
       </c>
+      <c r="Z3">
+        <v>496</v>
+      </c>
+      <c r="AA3">
+        <v>643</v>
+      </c>
+      <c r="AB3">
+        <v>798</v>
+      </c>
+      <c r="AC3">
+        <v>954</v>
+      </c>
+      <c r="AD3">
+        <v>1083</v>
+      </c>
+      <c r="AH3">
+        <v>496</v>
+      </c>
+      <c r="AI3">
+        <v>1048</v>
+      </c>
+      <c r="AJ3">
+        <v>1597</v>
+      </c>
+      <c r="AK3">
+        <v>2158</v>
+      </c>
+      <c r="AL3">
+        <v>2706</v>
+      </c>
+      <c r="AP3">
+        <v>496</v>
+      </c>
+      <c r="AQ3">
+        <v>1144</v>
+      </c>
+      <c r="AR3">
+        <v>1799</v>
+      </c>
+      <c r="AS3">
+        <v>2445</v>
+      </c>
+      <c r="AT3">
+        <v>3102</v>
+      </c>
+      <c r="AX3">
+        <v>496</v>
+      </c>
+      <c r="AY3">
+        <v>546</v>
+      </c>
+      <c r="AZ3">
+        <v>594</v>
+      </c>
+      <c r="BA3">
+        <v>641</v>
+      </c>
+      <c r="BB3">
+        <v>696</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2131,8 +4846,68 @@
       <c r="V4">
         <v>1694</v>
       </c>
+      <c r="Z4">
+        <v>515</v>
+      </c>
+      <c r="AA4">
+        <v>641</v>
+      </c>
+      <c r="AB4">
+        <v>796</v>
+      </c>
+      <c r="AC4">
+        <v>947</v>
+      </c>
+      <c r="AD4">
+        <v>1095</v>
+      </c>
+      <c r="AH4">
+        <v>515</v>
+      </c>
+      <c r="AI4">
+        <v>1044</v>
+      </c>
+      <c r="AJ4">
+        <v>1599</v>
+      </c>
+      <c r="AK4">
+        <v>2145</v>
+      </c>
+      <c r="AL4">
+        <v>2700</v>
+      </c>
+      <c r="AP4">
+        <v>515</v>
+      </c>
+      <c r="AQ4">
+        <v>1142</v>
+      </c>
+      <c r="AR4">
+        <v>1795</v>
+      </c>
+      <c r="AS4">
+        <v>2447</v>
+      </c>
+      <c r="AT4">
+        <v>3096</v>
+      </c>
+      <c r="AX4">
+        <v>515</v>
+      </c>
+      <c r="AY4">
+        <v>539</v>
+      </c>
+      <c r="AZ4">
+        <v>585</v>
+      </c>
+      <c r="BA4">
+        <v>636</v>
+      </c>
+      <c r="BB4">
+        <v>695</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2187,8 +4962,68 @@
       <c r="V5">
         <v>1696</v>
       </c>
+      <c r="Z5">
+        <v>486</v>
+      </c>
+      <c r="AA5">
+        <v>639</v>
+      </c>
+      <c r="AB5">
+        <v>796</v>
+      </c>
+      <c r="AC5">
+        <v>947</v>
+      </c>
+      <c r="AD5">
+        <v>1095</v>
+      </c>
+      <c r="AH5">
+        <v>486</v>
+      </c>
+      <c r="AI5">
+        <v>1047</v>
+      </c>
+      <c r="AJ5">
+        <v>1592</v>
+      </c>
+      <c r="AK5">
+        <v>2161</v>
+      </c>
+      <c r="AL5">
+        <v>2703</v>
+      </c>
+      <c r="AP5">
+        <v>486</v>
+      </c>
+      <c r="AQ5">
+        <v>1149</v>
+      </c>
+      <c r="AR5">
+        <v>1828</v>
+      </c>
+      <c r="AS5">
+        <v>2445</v>
+      </c>
+      <c r="AT5">
+        <v>3101</v>
+      </c>
+      <c r="AX5">
+        <v>486</v>
+      </c>
+      <c r="AY5">
+        <v>543</v>
+      </c>
+      <c r="AZ5">
+        <v>591</v>
+      </c>
+      <c r="BA5">
+        <v>647</v>
+      </c>
+      <c r="BB5">
+        <v>694</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2243,8 +5078,68 @@
       <c r="V6">
         <v>1695</v>
       </c>
+      <c r="Z6">
+        <v>485</v>
+      </c>
+      <c r="AA6">
+        <v>639</v>
+      </c>
+      <c r="AB6">
+        <v>792</v>
+      </c>
+      <c r="AC6">
+        <v>945</v>
+      </c>
+      <c r="AD6">
+        <v>1097</v>
+      </c>
+      <c r="AH6">
+        <v>485</v>
+      </c>
+      <c r="AI6">
+        <v>1046</v>
+      </c>
+      <c r="AJ6">
+        <v>1602</v>
+      </c>
+      <c r="AK6">
+        <v>2147</v>
+      </c>
+      <c r="AL6">
+        <v>2703</v>
+      </c>
+      <c r="AP6">
+        <v>485</v>
+      </c>
+      <c r="AQ6">
+        <v>1149</v>
+      </c>
+      <c r="AR6">
+        <v>1795</v>
+      </c>
+      <c r="AS6">
+        <v>2447</v>
+      </c>
+      <c r="AT6">
+        <v>3101</v>
+      </c>
+      <c r="AX6">
+        <v>485</v>
+      </c>
+      <c r="AY6">
+        <v>546</v>
+      </c>
+      <c r="AZ6">
+        <v>590</v>
+      </c>
+      <c r="BA6">
+        <v>647</v>
+      </c>
+      <c r="BB6">
+        <v>691</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2299,8 +5194,68 @@
       <c r="V7">
         <v>1698</v>
       </c>
+      <c r="Z7">
+        <v>510</v>
+      </c>
+      <c r="AA7">
+        <v>641</v>
+      </c>
+      <c r="AB7">
+        <v>789</v>
+      </c>
+      <c r="AC7">
+        <v>944</v>
+      </c>
+      <c r="AD7">
+        <v>1089</v>
+      </c>
+      <c r="AH7">
+        <v>510</v>
+      </c>
+      <c r="AI7">
+        <v>1047</v>
+      </c>
+      <c r="AJ7">
+        <v>1600</v>
+      </c>
+      <c r="AK7">
+        <v>2152</v>
+      </c>
+      <c r="AL7">
+        <v>2695</v>
+      </c>
+      <c r="AP7">
+        <v>510</v>
+      </c>
+      <c r="AQ7">
+        <v>1151</v>
+      </c>
+      <c r="AR7">
+        <v>1853</v>
+      </c>
+      <c r="AS7">
+        <v>2447</v>
+      </c>
+      <c r="AT7">
+        <v>3100</v>
+      </c>
+      <c r="AX7">
+        <v>510</v>
+      </c>
+      <c r="AY7">
+        <v>541</v>
+      </c>
+      <c r="AZ7">
+        <v>589</v>
+      </c>
+      <c r="BA7">
+        <v>646</v>
+      </c>
+      <c r="BB7">
+        <v>688</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2355,8 +5310,68 @@
       <c r="V8">
         <v>1690</v>
       </c>
+      <c r="Z8">
+        <v>491</v>
+      </c>
+      <c r="AA8">
+        <v>641</v>
+      </c>
+      <c r="AB8">
+        <v>790</v>
+      </c>
+      <c r="AC8">
+        <v>941</v>
+      </c>
+      <c r="AD8">
+        <v>1095</v>
+      </c>
+      <c r="AH8">
+        <v>491</v>
+      </c>
+      <c r="AI8">
+        <v>1049</v>
+      </c>
+      <c r="AJ8">
+        <v>1599</v>
+      </c>
+      <c r="AK8">
+        <v>2153</v>
+      </c>
+      <c r="AL8">
+        <v>2745</v>
+      </c>
+      <c r="AP8">
+        <v>491</v>
+      </c>
+      <c r="AQ8">
+        <v>1207</v>
+      </c>
+      <c r="AR8">
+        <v>1798</v>
+      </c>
+      <c r="AS8">
+        <v>2448</v>
+      </c>
+      <c r="AT8">
+        <v>3100</v>
+      </c>
+      <c r="AX8">
+        <v>491</v>
+      </c>
+      <c r="AY8">
+        <v>542</v>
+      </c>
+      <c r="AZ8">
+        <v>590</v>
+      </c>
+      <c r="BA8">
+        <v>645</v>
+      </c>
+      <c r="BB8">
+        <v>693</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2411,8 +5426,68 @@
       <c r="V9">
         <v>1694</v>
       </c>
+      <c r="Z9">
+        <v>490</v>
+      </c>
+      <c r="AA9">
+        <v>643</v>
+      </c>
+      <c r="AB9">
+        <v>890</v>
+      </c>
+      <c r="AC9">
+        <v>943</v>
+      </c>
+      <c r="AD9">
+        <v>1092</v>
+      </c>
+      <c r="AH9">
+        <v>490</v>
+      </c>
+      <c r="AI9">
+        <v>1053</v>
+      </c>
+      <c r="AJ9">
+        <v>1600</v>
+      </c>
+      <c r="AK9">
+        <v>2145</v>
+      </c>
+      <c r="AL9">
+        <v>2704</v>
+      </c>
+      <c r="AP9">
+        <v>490</v>
+      </c>
+      <c r="AQ9">
+        <v>1152</v>
+      </c>
+      <c r="AR9">
+        <v>1803</v>
+      </c>
+      <c r="AS9">
+        <v>2446</v>
+      </c>
+      <c r="AT9">
+        <v>3097</v>
+      </c>
+      <c r="AX9">
+        <v>490</v>
+      </c>
+      <c r="AY9">
+        <v>541</v>
+      </c>
+      <c r="AZ9">
+        <v>593</v>
+      </c>
+      <c r="BA9">
+        <v>642</v>
+      </c>
+      <c r="BB9">
+        <v>691</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2467,8 +5542,68 @@
       <c r="V10">
         <v>1696</v>
       </c>
+      <c r="Z10">
+        <v>493</v>
+      </c>
+      <c r="AA10">
+        <v>643</v>
+      </c>
+      <c r="AB10">
+        <v>795</v>
+      </c>
+      <c r="AC10">
+        <v>947</v>
+      </c>
+      <c r="AD10">
+        <v>1090</v>
+      </c>
+      <c r="AH10">
+        <v>493</v>
+      </c>
+      <c r="AI10">
+        <v>1156</v>
+      </c>
+      <c r="AJ10">
+        <v>1597</v>
+      </c>
+      <c r="AK10">
+        <v>2149</v>
+      </c>
+      <c r="AL10">
+        <v>2699</v>
+      </c>
+      <c r="AP10">
+        <v>493</v>
+      </c>
+      <c r="AQ10">
+        <v>1154</v>
+      </c>
+      <c r="AR10">
+        <v>1802</v>
+      </c>
+      <c r="AS10">
+        <v>2449</v>
+      </c>
+      <c r="AT10">
+        <v>3099</v>
+      </c>
+      <c r="AX10">
+        <v>493</v>
+      </c>
+      <c r="AY10">
+        <v>544</v>
+      </c>
+      <c r="AZ10">
+        <v>595</v>
+      </c>
+      <c r="BA10">
+        <v>640</v>
+      </c>
+      <c r="BB10">
+        <v>694</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2523,8 +5658,68 @@
       <c r="V11">
         <v>1695</v>
       </c>
+      <c r="Z11">
+        <v>504</v>
+      </c>
+      <c r="AA11">
+        <v>641</v>
+      </c>
+      <c r="AB11">
+        <v>795</v>
+      </c>
+      <c r="AC11">
+        <v>943</v>
+      </c>
+      <c r="AD11">
+        <v>1096</v>
+      </c>
+      <c r="AH11">
+        <v>504</v>
+      </c>
+      <c r="AI11">
+        <v>1040</v>
+      </c>
+      <c r="AJ11">
+        <v>1610</v>
+      </c>
+      <c r="AK11">
+        <v>2158</v>
+      </c>
+      <c r="AL11">
+        <v>2699</v>
+      </c>
+      <c r="AP11">
+        <v>504</v>
+      </c>
+      <c r="AQ11">
+        <v>1144</v>
+      </c>
+      <c r="AR11">
+        <v>1828</v>
+      </c>
+      <c r="AS11">
+        <v>2444</v>
+      </c>
+      <c r="AT11">
+        <v>3101</v>
+      </c>
+      <c r="AX11">
+        <v>504</v>
+      </c>
+      <c r="AY11">
+        <v>542</v>
+      </c>
+      <c r="AZ11">
+        <v>593</v>
+      </c>
+      <c r="BA11">
+        <v>641</v>
+      </c>
+      <c r="BB11">
+        <v>693</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2594,8 +5789,100 @@
         <f t="shared" ref="V12" si="8">_xlfn.STDEV.P(V2:V11)</f>
         <v>2.1540659228538019</v>
       </c>
+      <c r="Y12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z12">
+        <f>_xlfn.STDEV.P(Z2:Z11)</f>
+        <v>13.813037319865606</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" ref="AA12:AD12" si="9">_xlfn.STDEV.P(AA2:AA11)</f>
+        <v>6.9749551969887236</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="9"/>
+        <v>28.785586671110245</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="9"/>
+        <v>3.9242833740697169</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="9"/>
+        <v>4.2296571965113205</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH12">
+        <f>_xlfn.STDEV.P(AH2:AH11)</f>
+        <v>13.813037319865606</v>
+      </c>
+      <c r="AI12">
+        <f>_xlfn.STDEV.P(AI2:AI11)</f>
+        <v>32.724455686840692</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" ref="AI12:AL12" si="10">_xlfn.STDEV.P(AJ2:AJ11)</f>
+        <v>4.6141087980237305</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="10"/>
+        <v>5.6426943918663541</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="10"/>
+        <v>13.439121995130487</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP12">
+        <f>_xlfn.STDEV.P(AP2:AP11)</f>
+        <v>13.813037319865606</v>
+      </c>
+      <c r="AQ12">
+        <f>_xlfn.STDEV.P(AQ2:AQ11)</f>
+        <v>18.069034285207383</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" ref="AR12:AT12" si="11">_xlfn.STDEV.P(AR2:AR11)</f>
+        <v>18.837197243751522</v>
+      </c>
+      <c r="AS12">
+        <f t="shared" si="11"/>
+        <v>1.4317821063276353</v>
+      </c>
+      <c r="AT12">
+        <f t="shared" si="11"/>
+        <v>2.1</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX12">
+        <f>_xlfn.STDEV.P(AX2:AX11)</f>
+        <v>13.813037319865606</v>
+      </c>
+      <c r="AY12">
+        <f>_xlfn.STDEV.P(AY2:AY11)</f>
+        <v>2.1071307505705477</v>
+      </c>
+      <c r="AZ12">
+        <f t="shared" ref="AZ12:BB12" si="12">_xlfn.STDEV.P(AZ2:AZ11)</f>
+        <v>2.9748949561287032</v>
+      </c>
+      <c r="BA12">
+        <f t="shared" si="12"/>
+        <v>3.40587727318528</v>
+      </c>
+      <c r="BB12">
+        <f t="shared" si="12"/>
+        <v>4.5265881191025086</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -2650,23 +5937,115 @@
         <v>12.107438564687733</v>
       </c>
       <c r="S13">
-        <f t="shared" ref="S13:V13" si="9">_xlfn.CONFIDENCE.NORM($B$17,S12,5)</f>
+        <f t="shared" ref="S13:V13" si="13">_xlfn.CONFIDENCE.NORM($B$17,S12,5)</f>
         <v>3.5808922831435432</v>
       </c>
       <c r="T13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.6257071288019738</v>
       </c>
       <c r="U13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.8573179644270184</v>
       </c>
       <c r="V13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.8880873352692527</v>
       </c>
+      <c r="Y13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <f>_xlfn.CONFIDENCE.NORM($B$17,Z12,5)</f>
+        <v>12.107438564687733</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" ref="AA13:AD13" si="14">_xlfn.CONFIDENCE.NORM($B$17,AA12,5)</f>
+        <v>6.1137054496723851</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="14"/>
+        <v>25.231215560948925</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="14"/>
+        <v>3.4397228329820271</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="14"/>
+        <v>3.7073898716541227</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <f>_xlfn.CONFIDENCE.NORM($B$17,AH12,5)</f>
+        <v>12.107438564687733</v>
+      </c>
+      <c r="AI13">
+        <f>_xlfn.CONFIDENCE.NORM($B$17,AI12,5)</f>
+        <v>28.683723037615355</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" ref="AI13:AL13" si="15">_xlfn.CONFIDENCE.NORM($B$17,AJ12,5)</f>
+        <v>4.0443703661405159</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="15"/>
+        <v>4.9459488240559244</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="15"/>
+        <v>11.779693354290387</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP13">
+        <f>_xlfn.CONFIDENCE.NORM($B$17,AP12,5)</f>
+        <v>12.107438564687733</v>
+      </c>
+      <c r="AQ13">
+        <f>_xlfn.CONFIDENCE.NORM($B$17,AQ12,5)</f>
+        <v>15.837915837435325</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" ref="AR13:AT13" si="16">_xlfn.CONFIDENCE.NORM($B$17,AR12,5)</f>
+        <v>16.511227985435259</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="16"/>
+        <v>1.2549892893903878</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" si="16"/>
+        <v>1.8406973352108207</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX13">
+        <f>_xlfn.CONFIDENCE.NORM($B$17,AX12,5)</f>
+        <v>12.107438564687733</v>
+      </c>
+      <c r="AY13">
+        <f>_xlfn.CONFIDENCE.NORM($B$17,AY12,5)</f>
+        <v>1.8469475988171351</v>
+      </c>
+      <c r="AZ13">
+        <f t="shared" ref="AZ13:BB13" si="17">_xlfn.CONFIDENCE.NORM($B$17,AZ12,5)</f>
+        <v>2.6075624848943884</v>
+      </c>
+      <c r="BA13">
+        <f t="shared" si="17"/>
+        <v>2.9853282003844006</v>
+      </c>
+      <c r="BB13">
+        <f t="shared" si="17"/>
+        <v>3.9676565182994996</v>
+      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2675,19 +6054,19 @@
         <v>500</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:F14" si="10">AVERAGE(C2:C11)</f>
+        <f t="shared" ref="C14:F14" si="18">AVERAGE(C2:C11)</f>
         <v>1178.2</v>
       </c>
       <c r="D14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1840.3</v>
       </c>
       <c r="E14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2479.1</v>
       </c>
       <c r="F14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3237.1</v>
       </c>
       <c r="I14" t="s">
@@ -2698,19 +6077,19 @@
         <v>500</v>
       </c>
       <c r="K14">
-        <f t="shared" ref="K14:N14" si="11">AVERAGE(K2:K11)</f>
+        <f t="shared" ref="K14:N14" si="19">AVERAGE(K2:K11)</f>
         <v>698.2</v>
       </c>
       <c r="L14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>896.7</v>
       </c>
       <c r="M14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1096.0999999999999</v>
       </c>
       <c r="N14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1291.0999999999999</v>
       </c>
       <c r="Q14" t="s">
@@ -2721,20 +6100,112 @@
         <v>500</v>
       </c>
       <c r="S14">
-        <f t="shared" ref="S14:V14" si="12">AVERAGE(S2:S11)</f>
+        <f t="shared" ref="S14:V14" si="20">AVERAGE(S2:S11)</f>
         <v>794.9</v>
       </c>
       <c r="T14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1093.4000000000001</v>
       </c>
       <c r="U14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1394.9</v>
       </c>
       <c r="V14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1694.6</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14">
+        <f>AVERAGE(Z2:Z11)</f>
+        <v>500</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" ref="AA14:AD14" si="21">AVERAGE(AA2:AA11)</f>
+        <v>643.5</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="21"/>
+        <v>804.7</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="21"/>
+        <v>945</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="21"/>
+        <v>1092.9000000000001</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH14">
+        <f>AVERAGE(AH2:AH11)</f>
+        <v>500</v>
+      </c>
+      <c r="AI14">
+        <f>AVERAGE(AI2:AI11)</f>
+        <v>1058.9000000000001</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" ref="AI14:AL14" si="22">AVERAGE(AJ2:AJ11)</f>
+        <v>1600.1</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="22"/>
+        <v>2151.4</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="22"/>
+        <v>2705.7</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP14">
+        <f>AVERAGE(AP2:AP11)</f>
+        <v>500</v>
+      </c>
+      <c r="AQ14">
+        <f>AVERAGE(AQ2:AQ11)</f>
+        <v>1153.9000000000001</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" ref="AR14:AT14" si="23">AVERAGE(AR2:AR11)</f>
+        <v>1809.6</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="23"/>
+        <v>2446.5</v>
+      </c>
+      <c r="AT14">
+        <f t="shared" si="23"/>
+        <v>3099.3</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX14">
+        <f>AVERAGE(AX2:AX11)</f>
+        <v>500</v>
+      </c>
+      <c r="AY14">
+        <f>AVERAGE(AY2:AY11)</f>
+        <v>542.6</v>
+      </c>
+      <c r="AZ14">
+        <f t="shared" ref="AZ14:BB14" si="24">AVERAGE(AZ2:AZ11)</f>
+        <v>591.5</v>
+      </c>
+      <c r="BA14">
+        <f t="shared" si="24"/>
+        <v>643</v>
+      </c>
+      <c r="BB14">
+        <f t="shared" si="24"/>
+        <v>694.1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2749,4 +6220,594 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF02E8E6-34EF-4BE5-B2A5-009B97BA0655}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>50</v>
+      </c>
+      <c r="D1">
+        <v>100</v>
+      </c>
+      <c r="E1">
+        <v>150</v>
+      </c>
+      <c r="F1">
+        <v>200</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>530</v>
+      </c>
+      <c r="C2">
+        <v>512</v>
+      </c>
+      <c r="D2">
+        <v>1811</v>
+      </c>
+      <c r="E2">
+        <v>2496</v>
+      </c>
+      <c r="F2">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>496</v>
+      </c>
+      <c r="C3">
+        <v>490</v>
+      </c>
+      <c r="D3">
+        <v>1838</v>
+      </c>
+      <c r="E3">
+        <v>2643</v>
+      </c>
+      <c r="F3">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>515</v>
+      </c>
+      <c r="C4">
+        <v>494</v>
+      </c>
+      <c r="D4">
+        <v>1824</v>
+      </c>
+      <c r="E4">
+        <v>2587</v>
+      </c>
+      <c r="F4">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>486</v>
+      </c>
+      <c r="C5">
+        <v>492</v>
+      </c>
+      <c r="D5">
+        <v>1929</v>
+      </c>
+      <c r="E5">
+        <v>2541</v>
+      </c>
+      <c r="F5">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>485</v>
+      </c>
+      <c r="C6">
+        <v>492</v>
+      </c>
+      <c r="D6">
+        <v>1932</v>
+      </c>
+      <c r="E6">
+        <v>2275</v>
+      </c>
+      <c r="F6">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>510</v>
+      </c>
+      <c r="C7">
+        <v>494</v>
+      </c>
+      <c r="D7">
+        <v>1806</v>
+      </c>
+      <c r="E7">
+        <v>2454</v>
+      </c>
+      <c r="F7">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>491</v>
+      </c>
+      <c r="C8">
+        <v>496</v>
+      </c>
+      <c r="D8">
+        <v>1847</v>
+      </c>
+      <c r="E8">
+        <v>2461</v>
+      </c>
+      <c r="F8">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>490</v>
+      </c>
+      <c r="C9">
+        <v>495</v>
+      </c>
+      <c r="D9">
+        <v>1799</v>
+      </c>
+      <c r="E9">
+        <v>2446</v>
+      </c>
+      <c r="F9">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>493</v>
+      </c>
+      <c r="C10">
+        <v>491</v>
+      </c>
+      <c r="D10">
+        <v>1814</v>
+      </c>
+      <c r="E10">
+        <v>2441</v>
+      </c>
+      <c r="F10">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>504</v>
+      </c>
+      <c r="C11">
+        <v>497</v>
+      </c>
+      <c r="D11">
+        <v>1803</v>
+      </c>
+      <c r="E11">
+        <v>2447</v>
+      </c>
+      <c r="F11">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <f>_xlfn.STDEV.P(B2:B11)</f>
+        <v>13.813037319865606</v>
+      </c>
+      <c r="C12">
+        <v>491</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="C12:F12" si="0">_xlfn.STDEV.P(D2:D11)</f>
+        <v>47.345643939015126</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>94.24165745571328</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>163.60589842667653</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <f>_xlfn.CONFIDENCE.NORM(B17,B12,5)</f>
+        <v>12.107438564687733</v>
+      </c>
+      <c r="C13">
+        <f>_xlfn.CONFIDENCE.NORM($B$17,C12,5)</f>
+        <v>430.37256742310137</v>
+      </c>
+      <c r="D13">
+        <f>_xlfn.CONFIDENCE.NORM($B$17,D12,5)</f>
+        <v>41.499524110659756</v>
+      </c>
+      <c r="E13">
+        <f>_xlfn.CONFIDENCE.NORM($B$17,E12,5)</f>
+        <v>82.60493702122973</v>
+      </c>
+      <c r="F13">
+        <f>_xlfn.CONFIDENCE.NORM(B17,F12,5)</f>
+        <v>143.40425774226463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <f>AVERAGE(B2:B11)</f>
+        <v>500</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:F14" si="1">AVERAGE(C2:C11)</f>
+        <v>495.3</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>1840.3</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>2479.1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>3237.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72F10BB-214C-4AE0-B137-46C905AF79B9}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+      <c r="D1">
+        <v>20</v>
+      </c>
+      <c r="E1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>530</v>
+      </c>
+      <c r="D2">
+        <v>1811</v>
+      </c>
+      <c r="E2">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>496</v>
+      </c>
+      <c r="C3">
+        <v>1161</v>
+      </c>
+      <c r="D3">
+        <v>1838</v>
+      </c>
+      <c r="E3">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>515</v>
+      </c>
+      <c r="C4">
+        <v>1145</v>
+      </c>
+      <c r="D4">
+        <v>1824</v>
+      </c>
+      <c r="E4">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>486</v>
+      </c>
+      <c r="C5">
+        <v>1254</v>
+      </c>
+      <c r="D5">
+        <v>1929</v>
+      </c>
+      <c r="E5">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>485</v>
+      </c>
+      <c r="C6">
+        <v>1271</v>
+      </c>
+      <c r="D6">
+        <v>1932</v>
+      </c>
+      <c r="E6">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>510</v>
+      </c>
+      <c r="C7">
+        <v>1157</v>
+      </c>
+      <c r="D7">
+        <v>1806</v>
+      </c>
+      <c r="E7">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>491</v>
+      </c>
+      <c r="C8">
+        <v>1142</v>
+      </c>
+      <c r="D8">
+        <v>1847</v>
+      </c>
+      <c r="E8">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>490</v>
+      </c>
+      <c r="C9">
+        <v>1146</v>
+      </c>
+      <c r="D9">
+        <v>1799</v>
+      </c>
+      <c r="E9">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>493</v>
+      </c>
+      <c r="C10">
+        <v>1148</v>
+      </c>
+      <c r="D10">
+        <v>1814</v>
+      </c>
+      <c r="E10">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>504</v>
+      </c>
+      <c r="C11">
+        <v>1205</v>
+      </c>
+      <c r="D11">
+        <v>1803</v>
+      </c>
+      <c r="E11">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <f>_xlfn.STDEV.P(B2:B11)</f>
+        <v>13.813037319865606</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:F12" si="0">_xlfn.STDEV.P(C2:C11)</f>
+        <v>47.272261069962227</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>47.345643939015126</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>94.24165745571328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <f>_xlfn.CONFIDENCE.NORM(B17,B12,5)</f>
+        <v>12.107438564687733</v>
+      </c>
+      <c r="C13">
+        <f>_xlfn.CONFIDENCE.NORM($B$17,C12,5)</f>
+        <v>41.435202371842706</v>
+      </c>
+      <c r="D13">
+        <f>_xlfn.CONFIDENCE.NORM($B$17,D12,5)</f>
+        <v>41.499524110659756</v>
+      </c>
+      <c r="E13">
+        <f>_xlfn.CONFIDENCE.NORM($B$17,E12,5)</f>
+        <v>82.60493702122973</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <f>AVERAGE(B2:B11)</f>
+        <v>500</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:F14" si="1">AVERAGE(C2:C11)</f>
+        <v>1181</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>1840.3</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>2479.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\5g-cop\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A25BDE-2239-4992-AEDF-F99B58879C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA079883-E9BF-414F-A695-293CC041FC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{398FC3E8-3646-4E76-9457-E32DE5631863}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{398FC3E8-3646-4E76-9457-E32DE5631863}"/>
   </bookViews>
   <sheets>
     <sheet name="delay" sheetId="1" r:id="rId1"/>
@@ -3571,7 +3571,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4420,7 +4419,7 @@
   <dimension ref="A1:BB17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE15" sqref="AE15"/>
+      <selection activeCell="BH26" sqref="BH26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5824,7 +5823,7 @@
         <v>32.724455686840692</v>
       </c>
       <c r="AJ12">
-        <f t="shared" ref="AI12:AL12" si="10">_xlfn.STDEV.P(AJ2:AJ11)</f>
+        <f t="shared" ref="AJ12:AL12" si="10">_xlfn.STDEV.P(AJ2:AJ11)</f>
         <v>4.6141087980237305</v>
       </c>
       <c r="AK12">
@@ -5987,7 +5986,7 @@
         <v>28.683723037615355</v>
       </c>
       <c r="AJ13">
-        <f t="shared" ref="AI13:AL13" si="15">_xlfn.CONFIDENCE.NORM($B$17,AJ12,5)</f>
+        <f t="shared" ref="AJ13:AL13" si="15">_xlfn.CONFIDENCE.NORM($B$17,AJ12,5)</f>
         <v>4.0443703661405159</v>
       </c>
       <c r="AK13">
@@ -6150,7 +6149,7 @@
         <v>1058.9000000000001</v>
       </c>
       <c r="AJ14">
-        <f t="shared" ref="AI14:AL14" si="22">AVERAGE(AJ2:AJ11)</f>
+        <f t="shared" ref="AJ14:AL14" si="22">AVERAGE(AJ2:AJ11)</f>
         <v>1600.1</v>
       </c>
       <c r="AK14">
@@ -6467,7 +6466,7 @@
         <v>491</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="C12:F12" si="0">_xlfn.STDEV.P(D2:D11)</f>
+        <f t="shared" ref="D12:F12" si="0">_xlfn.STDEV.P(D2:D11)</f>
         <v>47.345643939015126</v>
       </c>
       <c r="E12">
@@ -6544,10 +6543,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72F10BB-214C-4AE0-B137-46C905AF79B9}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6576,6 +6575,9 @@
       <c r="B2">
         <v>530</v>
       </c>
+      <c r="C2">
+        <v>520</v>
+      </c>
       <c r="D2">
         <v>1811</v>
       </c>
@@ -6591,7 +6593,7 @@
         <v>496</v>
       </c>
       <c r="C3">
-        <v>1161</v>
+        <v>496</v>
       </c>
       <c r="D3">
         <v>1838</v>
@@ -6608,7 +6610,7 @@
         <v>515</v>
       </c>
       <c r="C4">
-        <v>1145</v>
+        <v>495</v>
       </c>
       <c r="D4">
         <v>1824</v>
@@ -6625,7 +6627,7 @@
         <v>486</v>
       </c>
       <c r="C5">
-        <v>1254</v>
+        <v>496</v>
       </c>
       <c r="D5">
         <v>1929</v>
@@ -6642,7 +6644,7 @@
         <v>485</v>
       </c>
       <c r="C6">
-        <v>1271</v>
+        <v>489</v>
       </c>
       <c r="D6">
         <v>1932</v>
@@ -6659,7 +6661,7 @@
         <v>510</v>
       </c>
       <c r="C7">
-        <v>1157</v>
+        <v>494</v>
       </c>
       <c r="D7">
         <v>1806</v>
@@ -6676,7 +6678,7 @@
         <v>491</v>
       </c>
       <c r="C8">
-        <v>1142</v>
+        <v>496</v>
       </c>
       <c r="D8">
         <v>1847</v>
@@ -6693,7 +6695,7 @@
         <v>490</v>
       </c>
       <c r="C9">
-        <v>1146</v>
+        <v>490</v>
       </c>
       <c r="D9">
         <v>1799</v>
@@ -6710,7 +6712,7 @@
         <v>493</v>
       </c>
       <c r="C10">
-        <v>1148</v>
+        <v>489</v>
       </c>
       <c r="D10">
         <v>1814</v>
@@ -6727,7 +6729,7 @@
         <v>504</v>
       </c>
       <c r="C11">
-        <v>1205</v>
+        <v>495</v>
       </c>
       <c r="D11">
         <v>1803</v>
@@ -6744,12 +6746,12 @@
         <f>_xlfn.STDEV.P(B2:B11)</f>
         <v>13.813037319865606</v>
       </c>
-      <c r="C12">
-        <f t="shared" ref="C12:F12" si="0">_xlfn.STDEV.P(C2:C11)</f>
-        <v>47.272261069962227</v>
+      <c r="C12" t="e">
+        <f>_xlfn.STDEV.P(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C12:E12" si="0">_xlfn.STDEV.P(D2:D11)</f>
         <v>47.345643939015126</v>
       </c>
       <c r="E12">
@@ -6765,9 +6767,9 @@
         <f>_xlfn.CONFIDENCE.NORM(B17,B12,5)</f>
         <v>12.107438564687733</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="e">
         <f>_xlfn.CONFIDENCE.NORM($B$17,C12,5)</f>
-        <v>41.435202371842706</v>
+        <v>#REF!</v>
       </c>
       <c r="D13">
         <f>_xlfn.CONFIDENCE.NORM($B$17,D12,5)</f>
@@ -6786,12 +6788,12 @@
         <f>AVERAGE(B2:B11)</f>
         <v>500</v>
       </c>
-      <c r="C14">
-        <f t="shared" ref="C14:F14" si="1">AVERAGE(C2:C11)</f>
-        <v>1181</v>
+      <c r="C14" t="e">
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C14:E14" si="1">AVERAGE(D2:D11)</f>
         <v>1840.3</v>
       </c>
       <c r="E14">
@@ -6799,12 +6801,17 @@
         <v>2479.1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17">
         <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>492</v>
       </c>
     </row>
   </sheetData>
